--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268282.8950082696</v>
+        <v>265844.4219085228</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>74.322627841559</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>344.0499580396273</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -865,22 +865,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>79.88066061577938</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>34.12489344345543</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>223.3561215393488</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>211.0785184722396</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>41.86545721173142</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>70.70607604584265</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>201.6086852141645</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>26.89854620008917</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>36.41827022425642</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>151.6607165205592</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819392</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>35.88641949135409</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>256.0341711178253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.23766645968814</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>96.78074638267796</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>142.3046100066252</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.40545032729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098626</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>103.2319066432215</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0.6197054599918851</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>106.3612762946744</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>80.67842139643641</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>34.22340015155456</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>46.29306638367346</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>175.9612165073972</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>80.33989744908958</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694473</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.606831754061</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>775.0816216130238</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>775.0816216130238</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734407</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758595</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986321</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291645</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>796.8106393615039</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C4" t="n">
-        <v>627.8744564335971</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
         <v>477.7578170212613</v>
@@ -4483,7 +4483,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1756.776554870486</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1535.009939440012</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1535.009939440012</v>
+        <v>1389.542001905549</v>
       </c>
       <c r="V4" t="n">
-        <v>1535.009939440012</v>
+        <v>1134.857513699662</v>
       </c>
       <c r="W4" t="n">
-        <v>1245.592769403052</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="X4" t="n">
-        <v>1017.603218505034</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="Y4" t="n">
-        <v>796.8106393615039</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1845.410930903097</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1476.448413962685</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D5" t="n">
-        <v>1118.182715355935</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1105.781096096228</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>694.7951913066208</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>279.7227411516173</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878909</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903097</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1855.874269254308</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1855.874269254308</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1634.107653823834</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1634.107653823834</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1379.423165617947</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>1090.005995580987</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.30093260579</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>806.3384156653785</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>806.3384156653785</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>806.3384156653785</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669912</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.5736815556431</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556431</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.5736815556431</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5191,58 +5191,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2410.714175003135</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2410.714175003135</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2191.112710026076</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>2191.112710026076</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1936.428221820189</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1647.011051783229</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1419.021500885211</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1198.228921741681</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630027</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4664207350958</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.3616186032</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947398</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741511</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.18473370455</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806533</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630027</v>
+        <v>945.4026036630058</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135277</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>2159.833596060193</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1870.758369404391</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.073881198505</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1326.656711161544</v>
+        <v>1500.121104285315</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.667160263527</v>
+        <v>1272.131553387297</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>1051.338974243767</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>762.547769317904</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>593.6115863899971</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367892</v>
+        <v>443.4949469776614</v>
       </c>
       <c r="E28" t="n">
-        <v>484.2179484367892</v>
+        <v>295.5818533952682</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952682</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>128.3857541101482</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>762.547769317904</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>282.2891673205955</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>140.5773361627936</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6883,7 +6883,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6935,7 +6935,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>316.6799057705107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9680746127088</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>201.1712862899742</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10.6330835810557</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>91.58808458374207</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>30.4888272187676</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>30.48882721876566</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.3469868924066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>83.05123379925595</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>6.310863011587202</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.1735436840667</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>285.9032928765991</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462278</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>112.2233770574204</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>64.74262662649484</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>106.0713126946693</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>34.97276993489207</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3.870763674540058</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9259388694759565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983848.5060135471</v>
+        <v>983848.506013547</v>
       </c>
     </row>
     <row r="3">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019033</v>
+        <v>335917.9865019032</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.796438928</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="H2" t="n">
-        <v>363215.9698605027</v>
-      </c>
       <c r="I2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605029</v>
@@ -26347,13 +26347,13 @@
         <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605029</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.549796580657131e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50848.90313554119</v>
+        <v>50848.90313554114</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26436,7 +26436,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685502</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26445,7 +26445,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26482,7 +26482,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1151609.602922624</v>
+        <v>-1151795.996311163</v>
       </c>
       <c r="C6" t="n">
-        <v>168131.0690293282</v>
+        <v>168131.0690293284</v>
       </c>
       <c r="D6" t="n">
-        <v>168131.0690293283</v>
+        <v>168131.069029328</v>
       </c>
       <c r="E6" t="n">
-        <v>-77535.77384761476</v>
+        <v>-77570.5117730502</v>
       </c>
       <c r="F6" t="n">
-        <v>247876.6879597405</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="G6" t="n">
-        <v>247876.6879597408</v>
+        <v>247841.9500343041</v>
       </c>
       <c r="H6" t="n">
-        <v>247876.6879597405</v>
+        <v>247841.950034305</v>
       </c>
       <c r="I6" t="n">
-        <v>247876.6879597405</v>
+        <v>247841.9500343051</v>
       </c>
       <c r="J6" t="n">
-        <v>30345.48556246301</v>
+        <v>30310.74763702745</v>
       </c>
       <c r="K6" t="n">
-        <v>247876.6879597407</v>
+        <v>247841.950034305</v>
       </c>
       <c r="L6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.9500343049</v>
       </c>
       <c r="M6" t="n">
-        <v>162821.6600242286</v>
+        <v>162786.922098793</v>
       </c>
       <c r="N6" t="n">
-        <v>247876.6879597405</v>
+        <v>247841.9500343049</v>
       </c>
       <c r="O6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.9500343049</v>
       </c>
       <c r="P6" t="n">
-        <v>247876.6879597405</v>
+        <v>247841.950034305</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>107.2399275319474</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.59967720443376</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>109.8883647156625</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>252.0869447621574</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>158.574248532913</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>83.52924591508091</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>125.3813638868964</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.22607662420468</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>181.1251564493161</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>379.9774995416223</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>130.8285508743714</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>66.92393683153554</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-2.386339083754669e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>549.9198891312103</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35738,7 @@
         <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060409</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>407.3236446867659</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
